--- a/biology/Zoologie/Dorylus/Dorylus.xlsx
+++ b/biology/Zoologie/Dorylus/Dorylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fourmis légionnaires du genre Dorylus, appelées également magnan, ou siafu en langue swahili, sont originaires d'Afrique centrale et orientale. Toutes les espèces sont aveugles et communiquent donc principalement par le biais de phéromones.
 </t>
@@ -511,7 +523,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colonie de Magnan ou Dorylus peut accueillir une vingtaine de millions d'individus. Contrairement à leurs cousines américaines Eciton, les Dorylus ne sont pas entièrement nomades et créent des fourmilières temporaires, pouvant durer de quelques jours à plusieurs mois. Lorsque la nourriture devient moins abondante, elles migrent, formant une colonne parcourant environ 20 mètres par heure. 
 </t>
@@ -542,7 +556,9 @@
           <t>Castes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fourmis magnans disposent d'une caste de soldats, plus gros que les ouvrières et pourvus de puissantes mandibules. Lorsque la colonie se déplace, ces soldats se postent en sentinelles, formant un cordon de sécurité le long de la route qu'empruntent les ouvrières et la reine et attaquant tout intrus. 
 Les membres sexués sont plus gros que les soldats et pourvus d'ailes leur permettant de quitter la colonie pour en former une nouvelle. Les mâles meurent peu après l'accouplement avec les femelles, qui sont autant de futures reines.
@@ -575,10 +591,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La morsure des soldats est très douloureuse. Ils lâchent difficilement prise, ce qui a conduit des peuples indigènes d'Afrique orientale, notamment les Maasaï, à les utiliser comme points de suture en faisant pincer la plaie aux soldats puis en arrachant le corps.
-Au Cameroun, la fourmi magnan est aussi utilisée pour favoriser l'allaitement[1].
+Au Cameroun, la fourmi magnan est aussi utilisée pour favoriser l'allaitement.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les magnans sont carnivores. Lors du déplacement de leur colonie, elles peuvent s'attaquer à des proies bien plus grosses qu'elles : rats, serpents, crabes d'eau douce, scorpions, mantes religieuses, etc. Une colonie magnan en mouvement est considérée comme dangereuse pour l'homme, bien que sa vitesse de déplacement (20 mètres par heure) la rende facile à éviter. C'est principalement pour les individus ne pouvant pas se déplacer (nourrissons, infirmes) qu'une telle colonie est dangereuse.
 </t>
@@ -638,7 +658,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les fourmis magnans ont donné leur surnom aux joueurs et supporteurs du Stella Club d'Adjamé, un club de football de Côte d'Ivoire.
 Dans le film documentaire La Citadelle assiégée (2006), ce sont des fourmis de ce genre qui affrontent des termites.
@@ -673,7 +695,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dorylus acutus Santschi, 1937
